--- a/Data/Genotype_Samples_2021.xlsx
+++ b/Data/Genotype_Samples_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilysesno/Desktop/Emily/USVI_Coral_Sampling/Coral-Sampling/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323CB9C1-F0C0-C14E-B5B1-202707BDBA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CACEF22-9274-2C47-A73B-1B1F976F56CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -262,12 +262,19 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>duplicate to line 186 (STT014) so think it's wrong tag #
-	-Emily Sesno</t>
+          <t xml:space="preserve">duplicate to line 186 (STT014) so think it's wrong tag #
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">	-Emily Sesno</t>
         </r>
       </text>
     </comment>
@@ -276,12 +283,19 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>Photo looks like PAST - maybe wrong tag?
-	-Emily Sesno</t>
+          <t xml:space="preserve">Photo looks like PAST - maybe wrong tag?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">	-Emily Sesno</t>
         </r>
       </text>
     </comment>
@@ -374,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3713" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3773" uniqueCount="1132">
   <si>
     <t>Date</t>
   </si>
@@ -1993,9 +2007,6 @@
     <t>Coki Beach</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Sonora Meiling OANN colonies</t>
   </si>
   <si>
@@ -2758,9 +2769,6 @@
     <t>G2357</t>
   </si>
   <si>
-    <t>OFRA?</t>
-  </si>
-  <si>
     <t>2021-07-15T15:25:20Z</t>
   </si>
   <si>
@@ -3022,9 +3030,6 @@
     <t>G2024</t>
   </si>
   <si>
-    <t>OANN or OFAV</t>
-  </si>
-  <si>
     <t>Tektite</t>
   </si>
   <si>
@@ -3770,6 +3775,15 @@
   </si>
   <si>
     <t>BUIS5</t>
+  </si>
+  <si>
+    <t>Sp?</t>
+  </si>
+  <si>
+    <t>or OFAV?</t>
+  </si>
+  <si>
+    <t>DEEP; SP?</t>
   </si>
 </sst>
 </file>
@@ -3781,7 +3795,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="m/d"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3810,16 +3824,23 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3844,8 +3865,14 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3862,11 +3889,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4005,16 +4050,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4081,7 +4152,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Pivot" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="Pivot" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" compact="0" compactData="0">
   <location ref="A3:B4" firstHeaderRow="0" firstDataRow="0" firstDataCol="0"/>
   <pivotFields count="11">
     <pivotField name="VialID" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -4356,10 +4427,10 @@
   <dimension ref="A1:AC959"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C302" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H154" sqref="H154:H172"/>
+      <selection pane="bottomRight" activeCell="J322" sqref="J322:K323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4459,7 +4530,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>21</v>
@@ -4509,7 +4580,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>28</v>
@@ -4559,7 +4630,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>33</v>
@@ -4609,7 +4680,7 @@
         <v>32</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>33</v>
@@ -4659,7 +4730,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>39</v>
@@ -4709,7 +4780,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>42</v>
@@ -4759,7 +4830,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>42</v>
@@ -4809,7 +4880,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>47</v>
@@ -4859,7 +4930,7 @@
         <v>32</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>50</v>
@@ -4909,7 +4980,7 @@
         <v>32</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>54</v>
@@ -4959,7 +5030,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>54</v>
@@ -5009,7 +5080,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>42</v>
@@ -5059,7 +5130,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>42</v>
@@ -5109,7 +5180,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>62</v>
@@ -5159,7 +5230,7 @@
         <v>20</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>62</v>
@@ -5209,7 +5280,7 @@
         <v>65</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -5253,7 +5324,7 @@
         <v>20</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>69</v>
@@ -5303,7 +5374,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>69</v>
@@ -5353,7 +5424,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>74</v>
@@ -5403,7 +5474,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>74</v>
@@ -5453,7 +5524,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>78</v>
@@ -5503,7 +5574,7 @@
         <v>20</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>78</v>
@@ -5553,7 +5624,7 @@
         <v>32</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>82</v>
@@ -5603,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>86</v>
@@ -5653,7 +5724,7 @@
         <v>32</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>89</v>
@@ -5706,7 +5777,7 @@
         <v>32</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>89</v>
@@ -5759,7 +5830,7 @@
         <v>32</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>96</v>
@@ -5809,7 +5880,7 @@
         <v>32</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>99</v>
@@ -5862,7 +5933,7 @@
         <v>32</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>89</v>
@@ -5915,7 +5986,7 @@
         <v>32</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -5962,7 +6033,7 @@
         <v>32</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>107</v>
@@ -6015,7 +6086,7 @@
         <v>32</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>89</v>
@@ -6065,7 +6136,7 @@
         <v>32</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -6109,7 +6180,7 @@
         <v>32</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -6153,7 +6224,7 @@
         <v>20</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>114</v>
@@ -6203,7 +6274,7 @@
         <v>20</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>118</v>
@@ -6253,7 +6324,7 @@
         <v>20</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -6297,7 +6368,7 @@
         <v>20</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I39" s="21" t="s">
         <v>122</v>
@@ -6360,7 +6431,7 @@
         <v>20</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>125</v>
@@ -6410,7 +6481,7 @@
         <v>20</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>128</v>
@@ -6460,7 +6531,7 @@
         <v>20</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>74</v>
@@ -6510,7 +6581,7 @@
         <v>32</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>133</v>
@@ -6560,7 +6631,7 @@
         <v>32</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>136</v>
@@ -6610,7 +6681,7 @@
         <v>32</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>139</v>
@@ -6660,7 +6731,7 @@
         <v>32</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>143</v>
@@ -6713,7 +6784,7 @@
         <v>32</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>147</v>
@@ -6763,7 +6834,7 @@
         <v>20</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>150</v>
@@ -6813,7 +6884,7 @@
         <v>20</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>153</v>
@@ -6863,7 +6934,7 @@
         <v>20</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I50" s="21" t="s">
         <v>155</v>
@@ -6926,7 +6997,7 @@
         <v>20</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>158</v>
@@ -6976,7 +7047,7 @@
         <v>32</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>161</v>
@@ -7026,7 +7097,7 @@
         <v>32</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>161</v>
@@ -7076,7 +7147,7 @@
         <v>32</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>165</v>
@@ -7126,7 +7197,7 @@
         <v>20</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>168</v>
@@ -7176,7 +7247,7 @@
         <v>32</v>
       </c>
       <c r="H56" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>171</v>
@@ -7226,7 +7297,7 @@
         <v>32</v>
       </c>
       <c r="H57" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>174</v>
@@ -7276,7 +7347,7 @@
         <v>32</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>177</v>
@@ -7326,7 +7397,7 @@
         <v>32</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>181</v>
@@ -7376,7 +7447,7 @@
         <v>32</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>185</v>
@@ -7429,7 +7500,7 @@
         <v>32</v>
       </c>
       <c r="H61" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>165</v>
@@ -7479,7 +7550,7 @@
         <v>32</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I62" s="5" t="s">
         <v>190</v>
@@ -7529,7 +7600,7 @@
         <v>32</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>193</v>
@@ -7580,7 +7651,7 @@
         <v>20</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>196</v>
@@ -7630,7 +7701,7 @@
         <v>32</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>199</v>
@@ -7680,7 +7751,7 @@
         <v>32</v>
       </c>
       <c r="H66" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>202</v>
@@ -7730,7 +7801,7 @@
         <v>20</v>
       </c>
       <c r="H67" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>205</v>
@@ -7780,7 +7851,7 @@
         <v>32</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>208</v>
@@ -7830,7 +7901,7 @@
         <v>20</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>213</v>
@@ -7880,7 +7951,7 @@
         <v>32</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I70" s="5" t="s">
         <v>158</v>
@@ -7930,7 +8001,7 @@
         <v>20</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I71" s="5" t="s">
         <v>218</v>
@@ -7980,7 +8051,7 @@
         <v>20</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>222</v>
@@ -8030,7 +8101,7 @@
         <v>32</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>168</v>
@@ -8080,7 +8151,7 @@
         <v>32</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>228</v>
@@ -8130,7 +8201,7 @@
         <v>20</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I75" s="5" t="s">
         <v>231</v>
@@ -8180,7 +8251,7 @@
         <v>20</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>234</v>
@@ -8230,7 +8301,7 @@
         <v>20</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>237</v>
@@ -8280,7 +8351,7 @@
         <v>20</v>
       </c>
       <c r="H78" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>240</v>
@@ -8333,7 +8404,7 @@
         <v>20</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>244</v>
@@ -8383,7 +8454,7 @@
         <v>20</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I80" s="5" t="s">
         <v>247</v>
@@ -8433,7 +8504,7 @@
         <v>32</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I81" s="5" t="s">
         <v>250</v>
@@ -8483,7 +8554,7 @@
         <v>20</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I82" s="5" t="s">
         <v>253</v>
@@ -8533,7 +8604,7 @@
         <v>20</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I83" s="5" t="s">
         <v>257</v>
@@ -8583,7 +8654,7 @@
         <v>20</v>
       </c>
       <c r="H84" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I84" s="5" t="s">
         <v>261</v>
@@ -8633,7 +8704,7 @@
         <v>20</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I85" s="5" t="s">
         <v>264</v>
@@ -8683,7 +8754,7 @@
         <v>32</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I86" s="5" t="s">
         <v>267</v>
@@ -8733,7 +8804,7 @@
         <v>32</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I87" s="5" t="s">
         <v>270</v>
@@ -8783,7 +8854,7 @@
         <v>274</v>
       </c>
       <c r="H88" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I88" s="5" t="s">
         <v>275</v>
@@ -8833,7 +8904,7 @@
         <v>274</v>
       </c>
       <c r="H89" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>278</v>
@@ -8883,7 +8954,7 @@
         <v>274</v>
       </c>
       <c r="H90" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>281</v>
@@ -8933,7 +9004,7 @@
         <v>32</v>
       </c>
       <c r="H91" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>286</v>
@@ -8983,7 +9054,7 @@
         <v>32</v>
       </c>
       <c r="H92" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>289</v>
@@ -9033,7 +9104,7 @@
         <v>32</v>
       </c>
       <c r="H93" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>291</v>
@@ -9083,7 +9154,7 @@
         <v>32</v>
       </c>
       <c r="H94" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>294</v>
@@ -9136,7 +9207,7 @@
         <v>32</v>
       </c>
       <c r="H95" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>297</v>
@@ -9186,7 +9257,7 @@
         <v>20</v>
       </c>
       <c r="H96" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>300</v>
@@ -9236,7 +9307,7 @@
         <v>20</v>
       </c>
       <c r="H97" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I97" s="5" t="s">
         <v>303</v>
@@ -9286,7 +9357,7 @@
         <v>20</v>
       </c>
       <c r="H98" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>237</v>
@@ -9336,7 +9407,7 @@
         <v>20</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I99" s="5" t="s">
         <v>174</v>
@@ -9386,7 +9457,7 @@
         <v>20</v>
       </c>
       <c r="H100" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>310</v>
@@ -9436,7 +9507,7 @@
         <v>20</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>313</v>
@@ -9486,7 +9557,7 @@
         <v>32</v>
       </c>
       <c r="H102" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>316</v>
@@ -9536,7 +9607,7 @@
         <v>20</v>
       </c>
       <c r="H103" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>319</v>
@@ -9586,7 +9657,7 @@
         <v>20</v>
       </c>
       <c r="H104" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>322</v>
@@ -9636,7 +9707,7 @@
         <v>20</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>257</v>
@@ -9686,7 +9757,7 @@
         <v>32</v>
       </c>
       <c r="H106" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I106" s="5" t="s">
         <v>327</v>
@@ -9736,7 +9807,7 @@
         <v>32</v>
       </c>
       <c r="H107" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>330</v>
@@ -9786,7 +9857,7 @@
         <v>32</v>
       </c>
       <c r="H108" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I108" s="5" t="s">
         <v>333</v>
@@ -9836,7 +9907,7 @@
         <v>20</v>
       </c>
       <c r="H109" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I109" s="5" t="s">
         <v>335</v>
@@ -9886,7 +9957,7 @@
         <v>32</v>
       </c>
       <c r="H110" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>338</v>
@@ -9936,7 +10007,7 @@
         <v>20</v>
       </c>
       <c r="H111" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>250</v>
@@ -9986,7 +10057,7 @@
         <v>32</v>
       </c>
       <c r="H112" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>343</v>
@@ -10036,7 +10107,7 @@
         <v>32</v>
       </c>
       <c r="H113" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>346</v>
@@ -10086,7 +10157,7 @@
         <v>32</v>
       </c>
       <c r="H114" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I114" s="5" t="s">
         <v>278</v>
@@ -10136,7 +10207,7 @@
         <v>32</v>
       </c>
       <c r="H115" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I115" s="5" t="s">
         <v>353</v>
@@ -10189,7 +10260,7 @@
         <v>20</v>
       </c>
       <c r="H116" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I116" s="5" t="s">
         <v>228</v>
@@ -10239,7 +10310,7 @@
         <v>20</v>
       </c>
       <c r="H117" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I117" s="5" t="s">
         <v>205</v>
@@ -10289,7 +10360,7 @@
         <v>32</v>
       </c>
       <c r="H118" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>294</v>
@@ -10342,7 +10413,7 @@
         <v>32</v>
       </c>
       <c r="H119" s="29" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>363</v>
@@ -10392,11 +10463,11 @@
         <v>32</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I120" s="53"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="54"/>
+        <v>1126</v>
+      </c>
+      <c r="I120" s="54"/>
+      <c r="J120" s="55"/>
+      <c r="K120" s="55"/>
       <c r="L120" s="2" t="s">
         <v>22</v>
       </c>
@@ -10436,11 +10507,11 @@
         <v>32</v>
       </c>
       <c r="H121" s="29" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
+        <v>1126</v>
+      </c>
+      <c r="I121" s="55"/>
+      <c r="J121" s="55"/>
+      <c r="K121" s="55"/>
       <c r="L121" s="2" t="s">
         <v>22</v>
       </c>
@@ -10480,11 +10551,11 @@
         <v>32</v>
       </c>
       <c r="H122" s="29" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
+        <v>1126</v>
+      </c>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55"/>
       <c r="L122" s="2" t="s">
         <v>22</v>
       </c>
@@ -10524,11 +10595,11 @@
         <v>32</v>
       </c>
       <c r="H123" s="29" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="54"/>
+        <v>1126</v>
+      </c>
+      <c r="I123" s="55"/>
+      <c r="J123" s="55"/>
+      <c r="K123" s="55"/>
       <c r="L123" s="2" t="s">
         <v>22</v>
       </c>
@@ -10568,11 +10639,11 @@
         <v>32</v>
       </c>
       <c r="H124" s="29" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
+        <v>1126</v>
+      </c>
+      <c r="I124" s="55"/>
+      <c r="J124" s="55"/>
+      <c r="K124" s="55"/>
       <c r="L124" s="2" t="s">
         <v>22</v>
       </c>
@@ -10612,11 +10683,11 @@
         <v>32</v>
       </c>
       <c r="H125" s="29" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I125" s="54"/>
-      <c r="J125" s="54"/>
-      <c r="K125" s="54"/>
+        <v>1126</v>
+      </c>
+      <c r="I125" s="55"/>
+      <c r="J125" s="55"/>
+      <c r="K125" s="55"/>
       <c r="L125" s="2" t="s">
         <v>22</v>
       </c>
@@ -10656,11 +10727,11 @@
         <v>32</v>
       </c>
       <c r="H126" s="29" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
+        <v>1126</v>
+      </c>
+      <c r="I126" s="55"/>
+      <c r="J126" s="55"/>
+      <c r="K126" s="55"/>
       <c r="L126" s="2" t="s">
         <v>22</v>
       </c>
@@ -10700,11 +10771,11 @@
         <v>32</v>
       </c>
       <c r="H127" s="29" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I127" s="54"/>
-      <c r="J127" s="54"/>
-      <c r="K127" s="54"/>
+        <v>1126</v>
+      </c>
+      <c r="I127" s="55"/>
+      <c r="J127" s="55"/>
+      <c r="K127" s="55"/>
       <c r="L127" s="2" t="s">
         <v>22</v>
       </c>
@@ -10744,11 +10815,11 @@
         <v>32</v>
       </c>
       <c r="H128" s="29" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I128" s="54"/>
-      <c r="J128" s="54"/>
-      <c r="K128" s="54"/>
+        <v>1126</v>
+      </c>
+      <c r="I128" s="55"/>
+      <c r="J128" s="55"/>
+      <c r="K128" s="55"/>
       <c r="L128" s="2" t="s">
         <v>22</v>
       </c>
@@ -10788,11 +10859,11 @@
         <v>32</v>
       </c>
       <c r="H129" s="29" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I129" s="54"/>
-      <c r="J129" s="54"/>
-      <c r="K129" s="54"/>
+        <v>1126</v>
+      </c>
+      <c r="I129" s="55"/>
+      <c r="J129" s="55"/>
+      <c r="K129" s="55"/>
       <c r="L129" s="2" t="s">
         <v>22</v>
       </c>
@@ -10832,11 +10903,11 @@
         <v>32</v>
       </c>
       <c r="H130" s="29" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I130" s="54"/>
-      <c r="J130" s="54"/>
-      <c r="K130" s="54"/>
+        <v>1126</v>
+      </c>
+      <c r="I130" s="55"/>
+      <c r="J130" s="55"/>
+      <c r="K130" s="55"/>
       <c r="L130" s="2" t="s">
         <v>22</v>
       </c>
@@ -10876,11 +10947,11 @@
         <v>32</v>
       </c>
       <c r="H131" s="29" t="s">
-        <v>1129</v>
-      </c>
-      <c r="I131" s="54"/>
-      <c r="J131" s="54"/>
-      <c r="K131" s="54"/>
+        <v>1126</v>
+      </c>
+      <c r="I131" s="55"/>
+      <c r="J131" s="55"/>
+      <c r="K131" s="55"/>
       <c r="L131" s="2" t="s">
         <v>22</v>
       </c>
@@ -10920,7 +10991,7 @@
         <v>20</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I132" s="9" t="s">
         <v>403</v>
@@ -10970,7 +11041,7 @@
         <v>20</v>
       </c>
       <c r="H133" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
@@ -11014,7 +11085,7 @@
         <v>20</v>
       </c>
       <c r="H134" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I134" s="5" t="s">
         <v>410</v>
@@ -11064,7 +11135,7 @@
         <v>20</v>
       </c>
       <c r="H135" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I135" s="5" t="s">
         <v>413</v>
@@ -11114,7 +11185,7 @@
         <v>20</v>
       </c>
       <c r="H136" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I136" s="5" t="s">
         <v>417</v>
@@ -11164,7 +11235,7 @@
         <v>20</v>
       </c>
       <c r="H137" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I137" s="5" t="s">
         <v>421</v>
@@ -11217,7 +11288,7 @@
         <v>20</v>
       </c>
       <c r="H138" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I138" s="5" t="s">
         <v>426</v>
@@ -11267,7 +11338,7 @@
         <v>20</v>
       </c>
       <c r="H139" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I139" s="5" t="s">
         <v>430</v>
@@ -11317,7 +11388,7 @@
         <v>20</v>
       </c>
       <c r="H140" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I140" s="5" t="s">
         <v>433</v>
@@ -11367,7 +11438,7 @@
         <v>20</v>
       </c>
       <c r="H141" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I141" s="5" t="s">
         <v>436</v>
@@ -11417,7 +11488,7 @@
         <v>20</v>
       </c>
       <c r="H142" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I142" s="5" t="s">
         <v>439</v>
@@ -11467,7 +11538,7 @@
         <v>20</v>
       </c>
       <c r="H143" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I143" s="5" t="s">
         <v>442</v>
@@ -11517,7 +11588,7 @@
         <v>20</v>
       </c>
       <c r="H144" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I144" s="5" t="s">
         <v>446</v>
@@ -11567,7 +11638,7 @@
         <v>20</v>
       </c>
       <c r="H145" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I145" s="5" t="s">
         <v>449</v>
@@ -11620,7 +11691,7 @@
         <v>20</v>
       </c>
       <c r="H146" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I146" s="5" t="s">
         <v>453</v>
@@ -11670,7 +11741,7 @@
         <v>20</v>
       </c>
       <c r="H147" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I147" s="5" t="s">
         <v>457</v>
@@ -11720,7 +11791,7 @@
         <v>20</v>
       </c>
       <c r="H148" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I148" s="5" t="s">
         <v>461</v>
@@ -11770,7 +11841,7 @@
         <v>20</v>
       </c>
       <c r="H149" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I149" s="5" t="s">
         <v>465</v>
@@ -11820,7 +11891,7 @@
         <v>20</v>
       </c>
       <c r="H150" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I150" s="5" t="s">
         <v>468</v>
@@ -11870,7 +11941,7 @@
         <v>20</v>
       </c>
       <c r="H151" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I151" s="5" t="s">
         <v>471</v>
@@ -11920,7 +11991,7 @@
         <v>20</v>
       </c>
       <c r="H152" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I152" s="5" t="s">
         <v>474</v>
@@ -11970,7 +12041,7 @@
         <v>20</v>
       </c>
       <c r="H153" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="I153" s="5" t="s">
         <v>478</v>
@@ -12020,7 +12091,7 @@
         <v>20</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I154" s="5" t="s">
         <v>481</v>
@@ -12070,7 +12141,7 @@
         <v>20</v>
       </c>
       <c r="H155" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I155" s="5" t="s">
         <v>484</v>
@@ -12120,7 +12191,7 @@
         <v>20</v>
       </c>
       <c r="H156" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I156" s="5" t="s">
         <v>487</v>
@@ -12170,7 +12241,7 @@
         <v>20</v>
       </c>
       <c r="H157" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I157" s="5" t="s">
         <v>490</v>
@@ -12220,7 +12291,7 @@
         <v>20</v>
       </c>
       <c r="H158" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I158" s="5" t="s">
         <v>493</v>
@@ -12270,7 +12341,7 @@
         <v>20</v>
       </c>
       <c r="H159" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I159" s="5" t="s">
         <v>496</v>
@@ -12320,7 +12391,7 @@
         <v>20</v>
       </c>
       <c r="H160" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I160" s="5" t="s">
         <v>499</v>
@@ -12370,7 +12441,7 @@
         <v>20</v>
       </c>
       <c r="H161" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I161" s="5" t="s">
         <v>502</v>
@@ -12420,7 +12491,7 @@
         <v>20</v>
       </c>
       <c r="H162" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I162" s="5" t="s">
         <v>484</v>
@@ -12470,7 +12541,7 @@
         <v>20</v>
       </c>
       <c r="H163" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I163" s="5" t="s">
         <v>507</v>
@@ -12520,7 +12591,7 @@
         <v>20</v>
       </c>
       <c r="H164" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I164" s="5" t="s">
         <v>510</v>
@@ -12570,7 +12641,7 @@
         <v>20</v>
       </c>
       <c r="H165" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I165" s="5" t="s">
         <v>513</v>
@@ -12620,7 +12691,7 @@
         <v>20</v>
       </c>
       <c r="H166" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I166" s="5" t="s">
         <v>516</v>
@@ -12670,7 +12741,7 @@
         <v>20</v>
       </c>
       <c r="H167" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I167" s="5" t="s">
         <v>519</v>
@@ -12720,7 +12791,7 @@
         <v>20</v>
       </c>
       <c r="H168" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I168" s="5" t="s">
         <v>523</v>
@@ -12770,7 +12841,7 @@
         <v>20</v>
       </c>
       <c r="H169" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I169" s="5" t="s">
         <v>487</v>
@@ -12820,7 +12891,7 @@
         <v>20</v>
       </c>
       <c r="H170" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I170" s="5" t="s">
         <v>528</v>
@@ -12870,7 +12941,7 @@
         <v>20</v>
       </c>
       <c r="H171" s="29" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="I171" s="5" t="s">
         <v>531</v>
@@ -12919,16 +12990,16 @@
       <c r="G172" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H172" s="29" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I172" s="5" t="s">
+      <c r="H172" s="62" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I172" s="63" t="s">
         <v>534</v>
       </c>
-      <c r="J172" s="13">
+      <c r="J172" s="64">
         <v>17.790495185200001</v>
       </c>
-      <c r="K172" s="13">
+      <c r="K172" s="64">
         <v>-64.613083787299999</v>
       </c>
       <c r="L172" s="35" t="s">
@@ -12970,19 +13041,23 @@
       <c r="G173" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H173" s="2" t="s">
+      <c r="H173" s="60" t="s">
         <v>538</v>
       </c>
-      <c r="I173" s="53" t="s">
-        <v>539</v>
-      </c>
-      <c r="J173" s="54"/>
-      <c r="K173" s="54"/>
+      <c r="I173" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="J173" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="K173" s="61" t="s">
+        <v>355</v>
+      </c>
       <c r="L173" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M173" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N173" s="11">
         <v>44399</v>
@@ -13002,10 +13077,10 @@
         <v>44390</v>
       </c>
       <c r="B174" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="D174" s="2">
         <v>13</v>
@@ -13022,20 +13097,26 @@
       <c r="H174" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="I174" s="54"/>
-      <c r="J174" s="54"/>
-      <c r="K174" s="54"/>
+      <c r="I174" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J174" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K174" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L174" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M174" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N174" s="11">
         <v>44439</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P174" s="2" t="s">
         <v>24</v>
@@ -13049,10 +13130,10 @@
         <v>44390</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="D175" s="2">
         <v>28</v>
@@ -13069,20 +13150,26 @@
       <c r="H175" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="I175" s="54"/>
-      <c r="J175" s="54"/>
-      <c r="K175" s="54"/>
+      <c r="I175" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J175" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K175" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L175" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M175" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N175" s="11">
         <v>44439</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P175" s="2" t="s">
         <v>24</v>
@@ -13096,10 +13183,10 @@
         <v>44390</v>
       </c>
       <c r="B176" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="D176" s="7">
         <v>7</v>
@@ -13116,20 +13203,26 @@
       <c r="H176" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="I176" s="54"/>
-      <c r="J176" s="54"/>
-      <c r="K176" s="54"/>
+      <c r="I176" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J176" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K176" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L176" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M176" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N176" s="11">
         <v>44439</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P176" s="2" t="s">
         <v>24</v>
@@ -13143,10 +13236,10 @@
         <v>44390</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="D177" s="7">
         <v>3</v>
@@ -13163,20 +13256,26 @@
       <c r="H177" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="I177" s="54"/>
-      <c r="J177" s="54"/>
-      <c r="K177" s="54"/>
+      <c r="I177" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J177" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K177" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L177" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M177" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N177" s="11">
         <v>44439</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P177" s="2" t="s">
         <v>24</v>
@@ -13190,7 +13289,7 @@
         <v>44390</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C178" s="2">
         <v>1408</v>
@@ -13208,22 +13307,28 @@
         <v>32</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="I178" s="54"/>
-      <c r="J178" s="54"/>
-      <c r="K178" s="54"/>
+        <v>550</v>
+      </c>
+      <c r="I178" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J178" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K178" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L178" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M178" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N178" s="11">
         <v>44439</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P178" s="2" t="s">
         <v>24</v>
@@ -13237,7 +13342,7 @@
         <v>44390</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C179" s="2">
         <v>2000</v>
@@ -13255,22 +13360,28 @@
         <v>32</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="I179" s="54"/>
-      <c r="J179" s="54"/>
-      <c r="K179" s="54"/>
+        <v>550</v>
+      </c>
+      <c r="I179" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J179" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K179" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L179" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M179" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N179" s="11">
         <v>44439</v>
       </c>
       <c r="O179" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P179" s="2" t="s">
         <v>24</v>
@@ -13284,10 +13395,10 @@
         <v>44390</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C180" s="32" t="s">
         <v>554</v>
-      </c>
-      <c r="C180" s="32" t="s">
-        <v>555</v>
       </c>
       <c r="D180" s="7">
         <v>32</v>
@@ -13302,10 +13413,10 @@
         <v>32</v>
       </c>
       <c r="H180" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="I180" s="5" t="s">
         <v>556</v>
-      </c>
-      <c r="I180" s="5" t="s">
-        <v>557</v>
       </c>
       <c r="J180" s="13">
         <v>18.345048436894999</v>
@@ -13317,13 +13428,13 @@
         <v>35</v>
       </c>
       <c r="M180" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N180" s="11">
         <v>44439</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P180" s="2" t="s">
         <v>24</v>
@@ -13337,10 +13448,10 @@
         <v>44390</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="D181" s="7">
         <v>33</v>
@@ -13355,10 +13466,10 @@
         <v>32</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I181" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J181" s="13">
         <v>18.344986997544702</v>
@@ -13373,7 +13484,7 @@
         <v>44439</v>
       </c>
       <c r="O181" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P181" s="2" t="s">
         <v>24</v>
@@ -13387,10 +13498,10 @@
         <v>44390</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="D182" s="7">
         <v>34</v>
@@ -13405,10 +13516,10 @@
         <v>32</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J182" s="13">
         <v>18.345035361126001</v>
@@ -13420,13 +13531,13 @@
         <v>35</v>
       </c>
       <c r="M182" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N182" s="11">
         <v>44439</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P182" s="2" t="s">
         <v>24</v>
@@ -13440,10 +13551,10 @@
         <v>44390</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="D183" s="7">
         <v>35</v>
@@ -13458,10 +13569,10 @@
         <v>32</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J183" s="13">
         <v>18.344935197383101</v>
@@ -13476,7 +13587,7 @@
         <v>44439</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P183" s="2" t="s">
         <v>24</v>
@@ -13490,7 +13601,7 @@
         <v>44390</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C184" s="2">
         <v>1600</v>
@@ -13508,10 +13619,10 @@
         <v>32</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J184" s="13">
         <v>18.344835704192501</v>
@@ -13523,13 +13634,13 @@
         <v>35</v>
       </c>
       <c r="M184" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N184" s="11">
         <v>44439</v>
       </c>
       <c r="O184" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P184" s="2" t="s">
         <v>24</v>
@@ -13543,10 +13654,10 @@
         <v>44390</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="D185" s="7">
         <v>36</v>
@@ -13561,10 +13672,10 @@
         <v>32</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J185" s="13">
         <v>18.344680471345701</v>
@@ -13579,7 +13690,7 @@
         <v>44439</v>
       </c>
       <c r="O185" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P185" s="2" t="s">
         <v>24</v>
@@ -13593,10 +13704,10 @@
         <v>44390</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D186" s="7">
         <v>41</v>
@@ -13611,10 +13722,10 @@
         <v>32</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J186" s="13">
         <v>18.3446272462606</v>
@@ -13629,7 +13740,7 @@
         <v>44439</v>
       </c>
       <c r="O186" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P186" s="2" t="s">
         <v>24</v>
@@ -13643,10 +13754,10 @@
         <v>44390</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="D187" s="7">
         <v>38</v>
@@ -13661,10 +13772,10 @@
         <v>32</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J187" s="13">
         <v>18.344570165499999</v>
@@ -13679,7 +13790,7 @@
         <v>44439</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P187" s="2" t="s">
         <v>24</v>
@@ -13693,10 +13804,10 @@
         <v>44390</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="D188" s="7">
         <v>42</v>
@@ -13711,10 +13822,10 @@
         <v>32</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J188" s="13">
         <v>18.3445629570633</v>
@@ -13729,7 +13840,7 @@
         <v>44439</v>
       </c>
       <c r="O188" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P188" s="2" t="s">
         <v>24</v>
@@ -13743,10 +13854,10 @@
         <v>44390</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="D189" s="7">
         <v>39</v>
@@ -13761,10 +13872,10 @@
         <v>32</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J189" s="13">
         <v>18.344597658142401</v>
@@ -13779,7 +13890,7 @@
         <v>44439</v>
       </c>
       <c r="O189" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P189" s="2" t="s">
         <v>24</v>
@@ -13793,10 +13904,10 @@
         <v>44390</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="D190" s="7">
         <v>40</v>
@@ -13811,10 +13922,10 @@
         <v>32</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J190" s="13">
         <v>18.344524232670601</v>
@@ -13829,7 +13940,7 @@
         <v>44439</v>
       </c>
       <c r="O190" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P190" s="2" t="s">
         <v>24</v>
@@ -13843,10 +13954,10 @@
         <v>44390</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="D191" s="7">
         <v>37</v>
@@ -13861,10 +13972,10 @@
         <v>32</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J191" s="13">
         <v>18.344505792483599</v>
@@ -13879,7 +13990,7 @@
         <v>44439</v>
       </c>
       <c r="O191" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P191" s="2" t="s">
         <v>24</v>
@@ -13893,10 +14004,10 @@
         <v>44390</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="D192" s="7">
         <v>44</v>
@@ -13911,10 +14022,10 @@
         <v>32</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J192" s="13">
         <v>18.344434881582799</v>
@@ -13929,7 +14040,7 @@
         <v>44439</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P192" s="2" t="s">
         <v>24</v>
@@ -13943,7 +14054,7 @@
         <v>44390</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C193" s="2">
         <v>1582</v>
@@ -13961,10 +14072,10 @@
         <v>32</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J193" s="13">
         <v>18.344450304284599</v>
@@ -13976,13 +14087,13 @@
         <v>35</v>
       </c>
       <c r="M193" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N193" s="11">
         <v>44440</v>
       </c>
       <c r="O193" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P193" s="2" t="s">
         <v>24</v>
@@ -13996,10 +14107,10 @@
         <v>44390</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="D194" s="7">
         <v>46</v>
@@ -14014,10 +14125,10 @@
         <v>32</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J194" s="13">
         <v>18.344353158026902</v>
@@ -14032,7 +14143,7 @@
         <v>44440</v>
       </c>
       <c r="O194" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P194" s="2" t="s">
         <v>24</v>
@@ -14046,10 +14157,10 @@
         <v>44390</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="D195" s="7">
         <v>47</v>
@@ -14064,10 +14175,10 @@
         <v>32</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J195" s="13">
         <v>18.344198260456299</v>
@@ -14082,7 +14193,7 @@
         <v>44440</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P195" s="2" t="s">
         <v>24</v>
@@ -14096,10 +14207,10 @@
         <v>44390</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="D196" s="7">
         <v>48</v>
@@ -14114,10 +14225,10 @@
         <v>32</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J196" s="13">
         <v>18.3445426728576</v>
@@ -14129,13 +14240,13 @@
         <v>35</v>
       </c>
       <c r="M196" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N196" s="11">
         <v>44440</v>
       </c>
       <c r="O196" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P196" s="2" t="s">
         <v>24</v>
@@ -14149,7 +14260,7 @@
         <v>44390</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C197" s="2">
         <v>1507</v>
@@ -14167,10 +14278,10 @@
         <v>32</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J197" s="13">
         <v>18.344610650092299</v>
@@ -14182,13 +14293,13 @@
         <v>35</v>
       </c>
       <c r="M197" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N197" s="11">
         <v>44440</v>
       </c>
       <c r="O197" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P197" s="2" t="s">
         <v>24</v>
@@ -14197,12 +14308,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="47">
         <v>44390</v>
       </c>
       <c r="B198" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C198" s="35">
         <v>1477</v>
@@ -14220,10 +14331,10 @@
         <v>32</v>
       </c>
       <c r="H198" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J198" s="13">
         <v>18.345024045556698</v>
@@ -14235,13 +14346,13 @@
         <v>35</v>
       </c>
       <c r="M198" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N198" s="11">
         <v>44440</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P198" s="2" t="s">
         <v>24</v>
@@ -14250,15 +14361,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6">
         <v>44391</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="D199" s="7">
         <v>43</v>
@@ -14273,25 +14384,25 @@
         <v>32</v>
       </c>
       <c r="H199" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="I199" s="59" t="s">
         <v>612</v>
       </c>
-      <c r="I199" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="J199" s="13">
+      <c r="J199" s="65">
         <v>18.316423567011899</v>
       </c>
-      <c r="K199" s="13">
+      <c r="K199" s="65">
         <v>-64.988078987225805</v>
       </c>
-      <c r="L199" s="2" t="s">
+      <c r="L199" s="66" t="s">
         <v>35</v>
       </c>
       <c r="N199" s="11">
         <v>44440</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P199" s="2" t="s">
         <v>24</v>
@@ -14305,10 +14416,10 @@
         <v>44391</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="D200" s="7">
         <v>46</v>
@@ -14323,10 +14434,10 @@
         <v>32</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J200" s="13">
         <v>18.316442593932099</v>
@@ -14341,7 +14452,7 @@
         <v>44440</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P200" s="2" t="s">
         <v>24</v>
@@ -14355,10 +14466,10 @@
         <v>44391</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="D201" s="7">
         <v>23</v>
@@ -14373,10 +14484,10 @@
         <v>32</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J201" s="13">
         <v>18.3164486289024</v>
@@ -14391,7 +14502,7 @@
         <v>44440</v>
       </c>
       <c r="O201" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P201" s="2" t="s">
         <v>24</v>
@@ -14405,10 +14516,10 @@
         <v>44391</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="D202" s="7">
         <v>12</v>
@@ -14423,10 +14534,10 @@
         <v>32</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J202" s="13">
         <v>18.316434212028899</v>
@@ -14441,7 +14552,7 @@
         <v>44440</v>
       </c>
       <c r="O202" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P202" s="2" t="s">
         <v>24</v>
@@ -14455,10 +14566,10 @@
         <v>44391</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="D203" s="7">
         <v>41</v>
@@ -14473,10 +14584,10 @@
         <v>32</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J203" s="13">
         <v>18.316425830125802</v>
@@ -14491,7 +14602,7 @@
         <v>44440</v>
       </c>
       <c r="O203" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P203" s="2" t="s">
         <v>24</v>
@@ -14505,10 +14616,10 @@
         <v>44391</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="D204" s="7">
         <v>10</v>
@@ -14523,10 +14634,10 @@
         <v>32</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J204" s="13">
         <v>18.316440833732401</v>
@@ -14541,7 +14652,7 @@
         <v>44440</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P204" s="2" t="s">
         <v>24</v>
@@ -14555,10 +14666,10 @@
         <v>44391</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="D205" s="7">
         <v>4</v>
@@ -14573,10 +14684,10 @@
         <v>32</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J205" s="13">
         <v>18.316485341638302</v>
@@ -14591,7 +14702,7 @@
         <v>44440</v>
       </c>
       <c r="O205" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P205" s="2" t="s">
         <v>24</v>
@@ -14605,10 +14716,10 @@
         <v>44391</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="D206" s="7">
         <v>2</v>
@@ -14623,10 +14734,10 @@
         <v>32</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J206" s="13">
         <v>18.316480480134398</v>
@@ -14641,7 +14752,7 @@
         <v>44440</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P206" s="2" t="s">
         <v>24</v>
@@ -14655,10 +14766,10 @@
         <v>44391</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="D207" s="7">
         <v>48</v>
@@ -14673,10 +14784,10 @@
         <v>32</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J207" s="13">
         <v>18.316486934199901</v>
@@ -14691,7 +14802,7 @@
         <v>44440</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P207" s="2" t="s">
         <v>24</v>
@@ -14705,10 +14816,10 @@
         <v>44391</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="D208" s="7">
         <v>42</v>
@@ -14723,10 +14834,10 @@
         <v>32</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J208" s="13">
         <v>18.316506296396199</v>
@@ -14741,7 +14852,7 @@
         <v>44440</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P208" s="2" t="s">
         <v>24</v>
@@ -14755,10 +14866,10 @@
         <v>44391</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="D209" s="7">
         <v>17</v>
@@ -14773,10 +14884,10 @@
         <v>32</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J209" s="13">
         <v>18.316539740189899</v>
@@ -14791,7 +14902,7 @@
         <v>44440</v>
       </c>
       <c r="O209" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P209" s="2" t="s">
         <v>24</v>
@@ -14805,10 +14916,10 @@
         <v>44391</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="D210" s="7">
         <v>18</v>
@@ -14823,10 +14934,10 @@
         <v>32</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J210" s="13">
         <v>18.316546864807599</v>
@@ -14841,7 +14952,7 @@
         <v>44440</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P210" s="2" t="s">
         <v>24</v>
@@ -14855,10 +14966,10 @@
         <v>44391</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="D211" s="7">
         <v>47</v>
@@ -14873,10 +14984,10 @@
         <v>32</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J211" s="13">
         <v>18.316574441269001</v>
@@ -14891,7 +15002,7 @@
         <v>44440</v>
       </c>
       <c r="O211" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P211" s="2" t="s">
         <v>24</v>
@@ -14905,10 +15016,10 @@
         <v>44391</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="D212" s="7">
         <v>49</v>
@@ -14923,10 +15034,10 @@
         <v>32</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J212" s="13">
         <v>18.316612746566499</v>
@@ -14941,7 +15052,7 @@
         <v>44440</v>
       </c>
       <c r="O212" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P212" s="2" t="s">
         <v>24</v>
@@ -14955,10 +15066,10 @@
         <v>44391</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="D213" s="7">
         <v>19</v>
@@ -14973,10 +15084,10 @@
         <v>32</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J213" s="13">
         <v>18.316576704382801</v>
@@ -14991,7 +15102,7 @@
         <v>44446</v>
       </c>
       <c r="O213" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P213" s="2" t="s">
         <v>24</v>
@@ -15005,10 +15116,10 @@
         <v>44391</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="D214" s="7">
         <v>22</v>
@@ -15023,10 +15134,10 @@
         <v>32</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J214" s="13">
         <v>18.316596820950501</v>
@@ -15041,7 +15152,7 @@
         <v>44446</v>
       </c>
       <c r="O214" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P214" s="2" t="s">
         <v>24</v>
@@ -15055,10 +15166,10 @@
         <v>44391</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="D215" s="7">
         <v>1</v>
@@ -15073,10 +15184,10 @@
         <v>32</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J215" s="13">
         <v>18.316599000245301</v>
@@ -15091,7 +15202,7 @@
         <v>44446</v>
       </c>
       <c r="O215" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P215" s="2" t="s">
         <v>24</v>
@@ -15105,10 +15216,10 @@
         <v>44391</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="D216" s="7">
         <v>25</v>
@@ -15123,10 +15234,10 @@
         <v>32</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J216" s="13">
         <v>18.316589863970801</v>
@@ -15141,7 +15252,7 @@
         <v>44446</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P216" s="2" t="s">
         <v>24</v>
@@ -15155,10 +15266,10 @@
         <v>44391</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="D217" s="7">
         <v>6</v>
@@ -15173,10 +15284,10 @@
         <v>32</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J217" s="13">
         <v>18.316594725474701</v>
@@ -15191,7 +15302,7 @@
         <v>44446</v>
       </c>
       <c r="O217" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P217" s="2" t="s">
         <v>24</v>
@@ -15205,10 +15316,10 @@
         <v>44391</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="D218" s="7">
         <v>34</v>
@@ -15223,10 +15334,10 @@
         <v>32</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J218" s="13">
         <v>18.3166467770934</v>
@@ -15241,7 +15352,7 @@
         <v>44446</v>
       </c>
       <c r="O218" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P218" s="2" t="s">
         <v>24</v>
@@ -15255,10 +15366,10 @@
         <v>44391</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="D219" s="7">
         <v>36</v>
@@ -15273,10 +15384,10 @@
         <v>32</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J219" s="13">
         <v>18.316364977508702</v>
@@ -15291,7 +15402,7 @@
         <v>44446</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P219" s="2" t="s">
         <v>24</v>
@@ -15305,10 +15416,10 @@
         <v>44391</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>675</v>
       </c>
       <c r="D220" s="7">
         <v>51</v>
@@ -15323,10 +15434,10 @@
         <v>32</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J220" s="13">
         <v>18.316191304475002</v>
@@ -15341,7 +15452,7 @@
         <v>44446</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P220" s="2" t="s">
         <v>24</v>
@@ -15355,10 +15466,10 @@
         <v>44391</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="D221" s="7">
         <v>52</v>
@@ -15373,10 +15484,10 @@
         <v>32</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J221" s="13">
         <v>18.3160423580557</v>
@@ -15391,7 +15502,7 @@
         <v>44446</v>
       </c>
       <c r="O221" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P221" s="2" t="s">
         <v>24</v>
@@ -15405,10 +15516,10 @@
         <v>44391</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="D222" s="7">
         <v>56</v>
@@ -15423,10 +15534,10 @@
         <v>32</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J222" s="13">
         <v>18.316039172932499</v>
@@ -15441,7 +15552,7 @@
         <v>44446</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P222" s="2" t="s">
         <v>24</v>
@@ -15455,10 +15566,10 @@
         <v>44391</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="D223" s="7">
         <v>54</v>
@@ -15473,10 +15584,10 @@
         <v>32</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J223" s="13">
         <v>18.316006148233999</v>
@@ -15491,7 +15602,7 @@
         <v>44446</v>
       </c>
       <c r="O223" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P223" s="2" t="s">
         <v>24</v>
@@ -15505,10 +15616,10 @@
         <v>44391</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="D224" s="7">
         <v>59</v>
@@ -15523,10 +15634,10 @@
         <v>32</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J224" s="13">
         <v>18.316018385812601</v>
@@ -15541,7 +15652,7 @@
         <v>44446</v>
       </c>
       <c r="O224" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P224" s="2" t="s">
         <v>24</v>
@@ -15555,10 +15666,10 @@
         <v>44391</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>690</v>
       </c>
       <c r="D225" s="7">
         <v>60</v>
@@ -15573,10 +15684,10 @@
         <v>32</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J225" s="13">
         <v>18.315994413569499</v>
@@ -15591,7 +15702,7 @@
         <v>44446</v>
       </c>
       <c r="O225" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P225" s="2" t="s">
         <v>24</v>
@@ -15605,10 +15716,10 @@
         <v>44391</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="D226" s="7">
         <v>55</v>
@@ -15623,10 +15734,10 @@
         <v>32</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J226" s="13">
         <v>18.316031042486401</v>
@@ -15641,7 +15752,7 @@
         <v>44446</v>
       </c>
       <c r="O226" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P226" s="2" t="s">
         <v>24</v>
@@ -15655,7 +15766,7 @@
         <v>44391</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C227" s="7">
         <v>24</v>
@@ -15673,24 +15784,28 @@
         <v>32</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I227" s="53" t="s">
-        <v>539</v>
-      </c>
-      <c r="J227" s="54"/>
-      <c r="K227" s="54"/>
+        <v>611</v>
+      </c>
+      <c r="I227" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J227" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K227" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L227" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M227" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N227" s="11">
         <v>44446</v>
       </c>
       <c r="O227" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P227" s="2" t="s">
         <v>24</v>
@@ -15704,7 +15819,7 @@
         <v>44391</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C228" s="7">
         <v>29</v>
@@ -15722,22 +15837,28 @@
         <v>32</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I228" s="54"/>
-      <c r="J228" s="54"/>
-      <c r="K228" s="54"/>
+        <v>611</v>
+      </c>
+      <c r="I228" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J228" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K228" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L228" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M228" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N228" s="11">
         <v>44446</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P228" s="2" t="s">
         <v>24</v>
@@ -15751,7 +15872,7 @@
         <v>44391</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C229" s="7">
         <v>44</v>
@@ -15769,22 +15890,28 @@
         <v>32</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I229" s="54"/>
-      <c r="J229" s="54"/>
-      <c r="K229" s="54"/>
+        <v>611</v>
+      </c>
+      <c r="I229" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J229" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K229" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L229" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M229" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N229" s="11">
         <v>44446</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P229" s="2" t="s">
         <v>24</v>
@@ -15798,7 +15925,7 @@
         <v>44391</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C230" s="7">
         <v>30</v>
@@ -15816,22 +15943,28 @@
         <v>32</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I230" s="54"/>
-      <c r="J230" s="54"/>
-      <c r="K230" s="54"/>
+        <v>611</v>
+      </c>
+      <c r="I230" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J230" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K230" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L230" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M230" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N230" s="11">
         <v>44446</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P230" s="2" t="s">
         <v>24</v>
@@ -15845,7 +15978,7 @@
         <v>44391</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C231" s="7">
         <v>61</v>
@@ -15863,22 +15996,28 @@
         <v>32</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I231" s="54"/>
-      <c r="J231" s="54"/>
-      <c r="K231" s="54"/>
+        <v>611</v>
+      </c>
+      <c r="I231" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J231" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K231" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L231" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M231" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N231" s="11">
         <v>44446</v>
       </c>
       <c r="O231" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P231" s="2" t="s">
         <v>24</v>
@@ -15892,7 +16031,7 @@
         <v>44391</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C232" s="7">
         <v>32</v>
@@ -15910,22 +16049,28 @@
         <v>32</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I232" s="54"/>
-      <c r="J232" s="54"/>
-      <c r="K232" s="54"/>
+        <v>611</v>
+      </c>
+      <c r="I232" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J232" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K232" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L232" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M232" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N232" s="11">
         <v>44446</v>
       </c>
       <c r="O232" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P232" s="2" t="s">
         <v>24</v>
@@ -15939,7 +16084,7 @@
         <v>44391</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C233" s="7">
         <v>35</v>
@@ -15957,22 +16102,28 @@
         <v>32</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I233" s="54"/>
-      <c r="J233" s="54"/>
-      <c r="K233" s="54"/>
+        <v>611</v>
+      </c>
+      <c r="I233" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J233" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K233" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L233" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M233" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N233" s="11">
         <v>44446</v>
       </c>
       <c r="O233" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P233" s="2" t="s">
         <v>24</v>
@@ -15986,7 +16137,7 @@
         <v>44391</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C234" s="7">
         <v>71</v>
@@ -16004,22 +16155,28 @@
         <v>32</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I234" s="54"/>
-      <c r="J234" s="54"/>
-      <c r="K234" s="54"/>
+        <v>611</v>
+      </c>
+      <c r="I234" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J234" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K234" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L234" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M234" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N234" s="11">
         <v>44446</v>
       </c>
       <c r="O234" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P234" s="2" t="s">
         <v>24</v>
@@ -16033,7 +16190,7 @@
         <v>44391</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C235" s="7">
         <v>33</v>
@@ -16051,22 +16208,28 @@
         <v>32</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I235" s="54"/>
-      <c r="J235" s="54"/>
-      <c r="K235" s="54"/>
+        <v>611</v>
+      </c>
+      <c r="I235" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J235" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K235" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L235" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M235" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N235" s="11">
         <v>44446</v>
       </c>
       <c r="O235" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P235" s="2" t="s">
         <v>24</v>
@@ -16080,7 +16243,7 @@
         <v>44391</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C236" s="7">
         <v>20</v>
@@ -16098,22 +16261,28 @@
         <v>32</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I236" s="54"/>
-      <c r="J236" s="54"/>
-      <c r="K236" s="54"/>
+        <v>611</v>
+      </c>
+      <c r="I236" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J236" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K236" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L236" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M236" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N236" s="11">
         <v>44446</v>
       </c>
       <c r="O236" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P236" s="2" t="s">
         <v>24</v>
@@ -16127,7 +16296,7 @@
         <v>44391</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C237" s="7">
         <v>53</v>
@@ -16145,22 +16314,28 @@
         <v>32</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I237" s="54"/>
-      <c r="J237" s="54"/>
-      <c r="K237" s="54"/>
+        <v>611</v>
+      </c>
+      <c r="I237" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J237" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K237" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L237" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M237" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N237" s="11">
         <v>44447</v>
       </c>
       <c r="O237" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P237" s="2" t="s">
         <v>24</v>
@@ -16174,7 +16349,7 @@
         <v>44391</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C238" s="7">
         <v>38</v>
@@ -16192,22 +16367,28 @@
         <v>32</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="I238" s="54"/>
-      <c r="J238" s="54"/>
-      <c r="K238" s="54"/>
+        <v>611</v>
+      </c>
+      <c r="I238" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J238" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K238" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L238" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M238" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N238" s="11">
         <v>44447</v>
       </c>
       <c r="O238" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P238" s="2" t="s">
         <v>24</v>
@@ -16216,12 +16397,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="47">
         <v>44391</v>
       </c>
       <c r="B239" s="35" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C239" s="36">
         <v>31</v>
@@ -16239,22 +16420,28 @@
         <v>32</v>
       </c>
       <c r="H239" s="35" t="s">
-        <v>612</v>
-      </c>
-      <c r="I239" s="55"/>
-      <c r="J239" s="55"/>
-      <c r="K239" s="55"/>
+        <v>611</v>
+      </c>
+      <c r="I239" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J239" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="K239" s="58" t="s">
+        <v>355</v>
+      </c>
       <c r="L239" s="35" t="s">
         <v>35</v>
       </c>
       <c r="M239" s="48" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N239" s="49">
         <v>44399</v>
       </c>
       <c r="O239" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P239" s="2" t="s">
         <v>24</v>
@@ -16263,15 +16450,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6">
         <v>44392</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="D240" s="7">
         <v>19</v>
@@ -16286,10 +16473,10 @@
         <v>32</v>
       </c>
       <c r="H240" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="I240" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="I240" s="5" t="s">
-        <v>713</v>
       </c>
       <c r="J240" s="13">
         <v>18.347391011193299</v>
@@ -16301,13 +16488,13 @@
         <v>35</v>
       </c>
       <c r="M240" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N240" s="11">
         <v>44447</v>
       </c>
       <c r="O240" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P240" s="2" t="s">
         <v>24</v>
@@ -16321,10 +16508,10 @@
         <v>44392</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="D241" s="7">
         <v>46</v>
@@ -16339,10 +16526,10 @@
         <v>32</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J241" s="13">
         <v>18.347532916814</v>
@@ -16354,13 +16541,13 @@
         <v>35</v>
       </c>
       <c r="M241" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N241" s="11">
         <v>44447</v>
       </c>
       <c r="O241" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P241" s="2" t="s">
         <v>24</v>
@@ -16374,10 +16561,10 @@
         <v>44392</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="D242" s="7">
         <v>47</v>
@@ -16392,10 +16579,10 @@
         <v>32</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J242" s="13">
         <v>18.347350861877199</v>
@@ -16407,13 +16594,13 @@
         <v>35</v>
       </c>
       <c r="M242" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N242" s="11">
         <v>44447</v>
       </c>
       <c r="O242" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P242" s="2" t="s">
         <v>24</v>
@@ -16427,10 +16614,10 @@
         <v>44392</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="D243" s="7">
         <v>69</v>
@@ -16445,10 +16632,10 @@
         <v>32</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J243" s="13">
         <v>18.347535347566001</v>
@@ -16460,13 +16647,13 @@
         <v>35</v>
       </c>
       <c r="M243" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N243" s="11">
         <v>44447</v>
       </c>
       <c r="O243" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P243" s="2" t="s">
         <v>24</v>
@@ -16480,10 +16667,10 @@
         <v>44392</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="D244" s="7">
         <v>23</v>
@@ -16498,10 +16685,10 @@
         <v>32</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J244" s="13">
         <v>18.347549345344301</v>
@@ -16513,13 +16700,13 @@
         <v>35</v>
       </c>
       <c r="M244" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N244" s="11">
         <v>44447</v>
       </c>
       <c r="O244" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P244" s="2" t="s">
         <v>24</v>
@@ -16533,10 +16720,10 @@
         <v>44392</v>
       </c>
       <c r="B245" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="D245" s="7">
         <v>15</v>
@@ -16551,10 +16738,10 @@
         <v>32</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J245" s="13">
         <v>18.347532916814</v>
@@ -16566,13 +16753,13 @@
         <v>35</v>
       </c>
       <c r="M245" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N245" s="11">
         <v>44447</v>
       </c>
       <c r="O245" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P245" s="2" t="s">
         <v>24</v>
@@ -16586,10 +16773,10 @@
         <v>44392</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="D246" s="7">
         <v>1</v>
@@ -16604,10 +16791,10 @@
         <v>32</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J246" s="13">
         <v>18.3495560567826</v>
@@ -16619,13 +16806,13 @@
         <v>35</v>
       </c>
       <c r="M246" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N246" s="11">
         <v>44447</v>
       </c>
       <c r="O246" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P246" s="2" t="s">
         <v>24</v>
@@ -16639,10 +16826,10 @@
         <v>44392</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>733</v>
       </c>
       <c r="D247" s="7">
         <v>43</v>
@@ -16657,10 +16844,10 @@
         <v>32</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I247" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J247" s="13">
         <v>18.347474494948901</v>
@@ -16672,13 +16859,13 @@
         <v>35</v>
       </c>
       <c r="M247" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N247" s="11">
         <v>44447</v>
       </c>
       <c r="O247" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P247" s="2" t="s">
         <v>24</v>
@@ -16692,10 +16879,10 @@
         <v>44392</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="D248" s="7">
         <v>61</v>
@@ -16710,10 +16897,10 @@
         <v>32</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I248" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J248" s="13">
         <v>18.3474487625062</v>
@@ -16725,13 +16912,13 @@
         <v>35</v>
       </c>
       <c r="M248" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N248" s="11">
         <v>44447</v>
       </c>
       <c r="O248" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P248" s="2" t="s">
         <v>24</v>
@@ -16745,10 +16932,10 @@
         <v>44392</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="D249" s="7">
         <v>4</v>
@@ -16763,10 +16950,10 @@
         <v>32</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J249" s="13">
         <v>18.347293864935601</v>
@@ -16778,13 +16965,13 @@
         <v>35</v>
       </c>
       <c r="M249" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N249" s="11">
         <v>44447</v>
       </c>
       <c r="O249" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P249" s="2" t="s">
         <v>24</v>
@@ -16798,10 +16985,10 @@
         <v>44392</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D250" s="7">
         <v>49</v>
@@ -16816,10 +17003,10 @@
         <v>32</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I250" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J250" s="13">
         <v>18.347386317327601</v>
@@ -16831,13 +17018,13 @@
         <v>35</v>
       </c>
       <c r="M250" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N250" s="11">
         <v>44447</v>
       </c>
       <c r="O250" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P250" s="2" t="s">
         <v>24</v>
@@ -16851,10 +17038,10 @@
         <v>44392</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="D251" s="7">
         <v>41</v>
@@ -16869,10 +17056,10 @@
         <v>32</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J251" s="13">
         <v>18.347447840496802</v>
@@ -16884,13 +17071,13 @@
         <v>35</v>
       </c>
       <c r="M251" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N251" s="11">
         <v>44447</v>
       </c>
       <c r="O251" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P251" s="2" t="s">
         <v>24</v>
@@ -16904,10 +17091,10 @@
         <v>44392</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="D252" s="7">
         <v>42</v>
@@ -16922,10 +17109,10 @@
         <v>32</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J252" s="13">
         <v>18.347287159413</v>
@@ -16937,13 +17124,13 @@
         <v>35</v>
       </c>
       <c r="M252" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N252" s="11">
         <v>44447</v>
       </c>
       <c r="O252" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P252" s="2" t="s">
         <v>24</v>
@@ -16957,10 +17144,10 @@
         <v>44392</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="D253" s="7">
         <v>39</v>
@@ -16975,10 +17162,10 @@
         <v>32</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J253" s="13">
         <v>18.347594188526202</v>
@@ -16990,13 +17177,13 @@
         <v>35</v>
       </c>
       <c r="M253" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N253" s="11">
         <v>44447</v>
       </c>
       <c r="O253" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P253" s="2" t="s">
         <v>24</v>
@@ -17010,10 +17197,10 @@
         <v>44392</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="D254" s="7">
         <v>30</v>
@@ -17028,10 +17215,10 @@
         <v>32</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J254" s="13">
         <v>18.347565606236401</v>
@@ -17043,13 +17230,13 @@
         <v>35</v>
       </c>
       <c r="M254" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N254" s="11">
         <v>44447</v>
       </c>
       <c r="O254" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P254" s="2" t="s">
         <v>24</v>
@@ -17063,10 +17250,10 @@
         <v>44392</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="D255" s="7">
         <v>34</v>
@@ -17081,10 +17268,10 @@
         <v>32</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J255" s="13">
         <v>18.347461000084799</v>
@@ -17096,13 +17283,13 @@
         <v>35</v>
       </c>
       <c r="M255" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N255" s="11">
         <v>44447</v>
       </c>
       <c r="O255" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P255" s="2" t="s">
         <v>24</v>
@@ -17116,10 +17303,10 @@
         <v>44392</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="D256" s="7">
         <v>6</v>
@@ -17134,10 +17321,10 @@
         <v>32</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J256" s="13">
         <v>18.3474712260067</v>
@@ -17149,13 +17336,13 @@
         <v>35</v>
       </c>
       <c r="M256" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N256" s="11">
         <v>44447</v>
       </c>
       <c r="O256" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P256" s="2" t="s">
         <v>24</v>
@@ -17169,10 +17356,10 @@
         <v>44392</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D257" s="7">
         <v>25</v>
@@ -17187,10 +17374,10 @@
         <v>32</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J257" s="13">
         <v>18.347356058657098</v>
@@ -17202,13 +17389,13 @@
         <v>35</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N257" s="11">
         <v>44447</v>
       </c>
       <c r="O257" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P257" s="2" t="s">
         <v>24</v>
@@ -17222,10 +17409,10 @@
         <v>44392</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D258" s="7">
         <v>27</v>
@@ -17240,10 +17427,10 @@
         <v>32</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J258" s="13">
         <v>18.3475140575319</v>
@@ -17255,13 +17442,13 @@
         <v>35</v>
       </c>
       <c r="M258" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N258" s="11">
         <v>44447</v>
       </c>
       <c r="O258" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P258" s="2" t="s">
         <v>24</v>
@@ -17275,10 +17462,10 @@
         <v>44392</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="D259" s="7">
         <v>45</v>
@@ -17293,10 +17480,10 @@
         <v>32</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J259" s="13">
         <v>18.347562421113199</v>
@@ -17308,13 +17495,13 @@
         <v>35</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N259" s="11">
         <v>44447</v>
       </c>
       <c r="O259" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P259" s="2" t="s">
         <v>24</v>
@@ -17328,46 +17515,46 @@
         <v>44392</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>65</v>
+        <v>355</v>
       </c>
       <c r="D260" s="7">
         <v>17</v>
       </c>
-      <c r="E260" s="7" t="s">
-        <v>65</v>
+      <c r="E260" s="53" t="s">
+        <v>355</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>65</v>
+        <v>355</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J260" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K260" s="2" t="s">
-        <v>65</v>
+        <v>355</v>
+      </c>
+      <c r="J260" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="K260" s="53" t="s">
+        <v>355</v>
       </c>
       <c r="L260" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N260" s="11">
         <v>44447</v>
       </c>
       <c r="O260" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P260" s="2" t="s">
         <v>24</v>
@@ -17381,10 +17568,10 @@
         <v>44392</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>769</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="D261" s="7">
         <v>10</v>
@@ -17399,10 +17586,10 @@
         <v>32</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J261" s="13">
         <v>18.347395369783001</v>
@@ -17414,13 +17601,13 @@
         <v>35</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N261" s="11">
         <v>44448</v>
       </c>
       <c r="O261" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P261" s="2" t="s">
         <v>24</v>
@@ -17434,10 +17621,10 @@
         <v>44392</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>773</v>
       </c>
       <c r="D262" s="7">
         <v>48</v>
@@ -17452,10 +17639,10 @@
         <v>32</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J262" s="13">
         <v>18.347259247675499</v>
@@ -17467,13 +17654,13 @@
         <v>35</v>
       </c>
       <c r="M262" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N262" s="11">
         <v>44448</v>
       </c>
       <c r="O262" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P262" s="2" t="s">
         <v>24</v>
@@ -17487,10 +17674,10 @@
         <v>44392</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>776</v>
       </c>
       <c r="D263" s="7">
         <v>44</v>
@@ -17505,10 +17692,10 @@
         <v>32</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J263" s="13">
         <v>18.347450857982</v>
@@ -17520,13 +17707,13 @@
         <v>35</v>
       </c>
       <c r="M263" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N263" s="11">
         <v>44448</v>
       </c>
       <c r="O263" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P263" s="2" t="s">
         <v>24</v>
@@ -17540,10 +17727,10 @@
         <v>44392</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D264" s="7">
         <v>12</v>
@@ -17558,10 +17745,10 @@
         <v>32</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J264" s="13">
         <v>18.347547417506501</v>
@@ -17573,13 +17760,13 @@
         <v>35</v>
       </c>
       <c r="M264" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N264" s="11">
         <v>44448</v>
       </c>
       <c r="O264" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P264" s="2" t="s">
         <v>24</v>
@@ -17593,10 +17780,10 @@
         <v>44392</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>781</v>
       </c>
       <c r="D265" s="7">
         <v>29</v>
@@ -17611,10 +17798,10 @@
         <v>32</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J265" s="13">
         <v>18.347449935972602</v>
@@ -17626,13 +17813,13 @@
         <v>35</v>
       </c>
       <c r="M265" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N265" s="11">
         <v>44448</v>
       </c>
       <c r="O265" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P265" s="2" t="s">
         <v>24</v>
@@ -17646,10 +17833,10 @@
         <v>44392</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D266" s="7">
         <v>22</v>
@@ -17664,10 +17851,10 @@
         <v>32</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J266" s="13">
         <v>18.347393190488201</v>
@@ -17679,13 +17866,13 @@
         <v>35</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N266" s="11">
         <v>44448</v>
       </c>
       <c r="O266" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P266" s="2" t="s">
         <v>24</v>
@@ -17699,10 +17886,10 @@
         <v>44392</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="D267" s="7">
         <v>70</v>
@@ -17717,10 +17904,10 @@
         <v>32</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J267" s="13">
         <v>18.347422108054101</v>
@@ -17732,13 +17919,13 @@
         <v>35</v>
       </c>
       <c r="M267" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N267" s="11">
         <v>44448</v>
       </c>
       <c r="O267" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P267" s="2" t="s">
         <v>24</v>
@@ -17752,10 +17939,10 @@
         <v>44392</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="D268" s="7">
         <v>18</v>
@@ -17770,10 +17957,10 @@
         <v>32</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J268" s="13">
         <v>18.347334433346902</v>
@@ -17785,13 +17972,13 @@
         <v>35</v>
       </c>
       <c r="M268" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N268" s="11">
         <v>44448</v>
       </c>
       <c r="O268" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P268" s="2" t="s">
         <v>24</v>
@@ -17805,10 +17992,10 @@
         <v>44392</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D269" s="7">
         <v>2</v>
@@ -17823,10 +18010,10 @@
         <v>32</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J269" s="13">
         <v>18.347293864935601</v>
@@ -17838,13 +18025,13 @@
         <v>35</v>
       </c>
       <c r="M269" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N269" s="11">
         <v>44448</v>
       </c>
       <c r="O269" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P269" s="2" t="s">
         <v>24</v>
@@ -17858,10 +18045,10 @@
         <v>44392</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C270" s="32" t="s">
         <v>792</v>
-      </c>
-      <c r="C270" s="32" t="s">
-        <v>793</v>
       </c>
       <c r="D270" s="7">
         <v>59</v>
@@ -17870,16 +18057,16 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>794</v>
+        <v>19</v>
       </c>
       <c r="G270" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="J270" s="13">
         <v>18.3500665146857</v>
@@ -17891,13 +18078,13 @@
         <v>35</v>
       </c>
       <c r="M270" s="5" t="s">
-        <v>796</v>
+        <v>1131</v>
       </c>
       <c r="N270" s="11">
         <v>44448</v>
       </c>
       <c r="O270" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P270" s="2" t="s">
         <v>24</v>
@@ -17911,10 +18098,10 @@
         <v>44392</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D271" s="7">
         <v>32</v>
@@ -17929,10 +18116,10 @@
         <v>32</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J271" s="13">
         <v>18.349749762564802</v>
@@ -17944,13 +18131,13 @@
         <v>35</v>
       </c>
       <c r="M271" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N271" s="11">
         <v>44448</v>
       </c>
       <c r="O271" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P271" s="2" t="s">
         <v>24</v>
@@ -17964,10 +18151,10 @@
         <v>44392</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D272" s="7">
         <v>54</v>
@@ -17982,10 +18169,10 @@
         <v>32</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="J272" s="13">
         <v>18.3501681033521</v>
@@ -17997,13 +18184,13 @@
         <v>35</v>
       </c>
       <c r="M272" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N272" s="11">
         <v>44448</v>
       </c>
       <c r="O272" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P272" s="2" t="s">
         <v>24</v>
@@ -18017,10 +18204,10 @@
         <v>44392</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D273" s="7">
         <v>31</v>
@@ -18035,10 +18222,10 @@
         <v>32</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I273" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="J273" s="13">
         <v>18.350153686478698</v>
@@ -18050,13 +18237,13 @@
         <v>35</v>
       </c>
       <c r="M273" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N273" s="11">
         <v>44448</v>
       </c>
       <c r="O273" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P273" s="2" t="s">
         <v>24</v>
@@ -18070,10 +18257,10 @@
         <v>44392</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D274" s="7">
         <v>38</v>
@@ -18088,10 +18275,10 @@
         <v>32</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="J274" s="13">
         <v>18.349847663193898</v>
@@ -18103,13 +18290,13 @@
         <v>35</v>
       </c>
       <c r="M274" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N274" s="11">
         <v>44448</v>
       </c>
       <c r="O274" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P274" s="2" t="s">
         <v>24</v>
@@ -18123,10 +18310,10 @@
         <v>44392</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D275" s="7">
         <v>35</v>
@@ -18141,10 +18328,10 @@
         <v>32</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="J275" s="13">
         <v>18.349745403975199</v>
@@ -18156,13 +18343,13 @@
         <v>35</v>
       </c>
       <c r="M275" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N275" s="11">
         <v>44448</v>
       </c>
       <c r="O275" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P275" s="2" t="s">
         <v>24</v>
@@ -18176,10 +18363,10 @@
         <v>44392</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D276" s="7">
         <v>58</v>
@@ -18194,10 +18381,10 @@
         <v>32</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="J276" s="13">
         <v>18.349811453372201</v>
@@ -18209,13 +18396,13 @@
         <v>35</v>
       </c>
       <c r="M276" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N276" s="11">
         <v>44448</v>
       </c>
       <c r="O276" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P276" s="2" t="s">
         <v>24</v>
@@ -18229,10 +18416,10 @@
         <v>44392</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D277" s="7">
         <v>65</v>
@@ -18247,10 +18434,10 @@
         <v>32</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J277" s="13">
         <v>18.350019911304098</v>
@@ -18262,13 +18449,13 @@
         <v>35</v>
       </c>
       <c r="M277" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N277" s="11">
         <v>44448</v>
       </c>
       <c r="O277" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P277" s="2" t="s">
         <v>24</v>
@@ -18282,10 +18469,10 @@
         <v>44392</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D278" s="7">
         <v>76</v>
@@ -18300,10 +18487,10 @@
         <v>32</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="J278" s="13">
         <v>18.349757473915801</v>
@@ -18315,13 +18502,13 @@
         <v>35</v>
       </c>
       <c r="M278" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N278" s="11">
         <v>44448</v>
       </c>
       <c r="O278" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P278" s="2" t="s">
         <v>24</v>
@@ -18335,10 +18522,10 @@
         <v>44392</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D279" s="7">
         <v>63</v>
@@ -18353,10 +18540,10 @@
         <v>32</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="J279" s="13">
         <v>18.3501681033521</v>
@@ -18368,13 +18555,13 @@
         <v>35</v>
       </c>
       <c r="M279" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N279" s="11">
         <v>44448</v>
       </c>
       <c r="O279" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P279" s="2" t="s">
         <v>24</v>
@@ -18388,10 +18575,10 @@
         <v>44392</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D280" s="7">
         <v>62</v>
@@ -18406,10 +18593,10 @@
         <v>32</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J280" s="13">
         <v>18.349849088117399</v>
@@ -18421,13 +18608,13 @@
         <v>35</v>
       </c>
       <c r="M280" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="N280" s="11">
         <v>44448</v>
       </c>
       <c r="O280" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P280" s="2" t="s">
         <v>24</v>
@@ -18441,10 +18628,10 @@
         <v>44392</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D281" s="7">
         <v>73</v>
@@ -18459,10 +18646,10 @@
         <v>32</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J281" s="13">
         <v>18.349960483610602</v>
@@ -18477,7 +18664,7 @@
         <v>44448</v>
       </c>
       <c r="O281" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P281" s="2" t="s">
         <v>24</v>
@@ -18491,10 +18678,10 @@
         <v>44392</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D282" s="7">
         <v>15</v>
@@ -18509,10 +18696,10 @@
         <v>32</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J282" s="13">
         <v>18.349662926048001</v>
@@ -18527,7 +18714,7 @@
         <v>44448</v>
       </c>
       <c r="O282" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P282" s="2" t="s">
         <v>24</v>
@@ -18541,10 +18728,10 @@
         <v>44392</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D283" s="7">
         <v>20</v>
@@ -18559,10 +18746,10 @@
         <v>32</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="J283" s="13">
         <v>18.3498257026076</v>
@@ -18577,7 +18764,7 @@
         <v>44448</v>
       </c>
       <c r="O283" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P283" s="2" t="s">
         <v>24</v>
@@ -18591,10 +18778,10 @@
         <v>44392</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D284" s="7">
         <v>53</v>
@@ -18609,10 +18796,10 @@
         <v>32</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="J284" s="13">
         <v>18.3499068394303</v>
@@ -18627,7 +18814,7 @@
         <v>44448</v>
       </c>
       <c r="O284" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P284" s="2" t="s">
         <v>24</v>
@@ -18641,10 +18828,10 @@
         <v>44392</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D285" s="7">
         <v>60</v>
@@ -18659,10 +18846,10 @@
         <v>32</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I285" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J285" s="13">
         <v>18.350014379248002</v>
@@ -18677,7 +18864,7 @@
         <v>44449</v>
       </c>
       <c r="O285" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P285" s="2" t="s">
         <v>24</v>
@@ -18691,10 +18878,10 @@
         <v>44392</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D286" s="7">
         <v>33</v>
@@ -18709,10 +18896,10 @@
         <v>32</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I286" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J286" s="13">
         <v>18.349749175831601</v>
@@ -18727,7 +18914,7 @@
         <v>44449</v>
       </c>
       <c r="O286" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P286" s="2" t="s">
         <v>24</v>
@@ -18741,10 +18928,10 @@
         <v>44392</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D287" s="7">
         <v>36</v>
@@ -18759,10 +18946,10 @@
         <v>32</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I287" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="J287" s="13">
         <v>18.3501267805695</v>
@@ -18777,7 +18964,7 @@
         <v>44449</v>
       </c>
       <c r="O287" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P287" s="2" t="s">
         <v>24</v>
@@ -18791,10 +18978,10 @@
         <v>44392</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D288" s="7">
         <v>56</v>
@@ -18809,10 +18996,10 @@
         <v>32</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I288" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J288" s="13">
         <v>18.350180508568801</v>
@@ -18827,7 +19014,7 @@
         <v>44449</v>
       </c>
       <c r="O288" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P288" s="2" t="s">
         <v>24</v>
@@ -18841,10 +19028,10 @@
         <v>44392</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D289" s="7">
         <v>68</v>
@@ -18859,10 +19046,10 @@
         <v>32</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I289" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J289" s="13">
         <v>18.350127870216902</v>
@@ -18877,7 +19064,7 @@
         <v>44449</v>
       </c>
       <c r="O289" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P289" s="2" t="s">
         <v>24</v>
@@ -18891,10 +19078,10 @@
         <v>44392</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D290" s="7">
         <v>66</v>
@@ -18909,10 +19096,10 @@
         <v>32</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J290" s="13">
         <v>18.350014379248002</v>
@@ -18927,7 +19114,7 @@
         <v>44449</v>
       </c>
       <c r="O290" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P290" s="2" t="s">
         <v>24</v>
@@ -18941,10 +19128,10 @@
         <v>44392</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D291" s="7">
         <v>64</v>
@@ -18959,10 +19146,10 @@
         <v>32</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J291" s="13">
         <v>18.350174892693701</v>
@@ -18977,7 +19164,7 @@
         <v>44449</v>
       </c>
       <c r="O291" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P291" s="2" t="s">
         <v>24</v>
@@ -18991,10 +19178,10 @@
         <v>44392</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D292" s="7">
         <v>67</v>
@@ -19009,10 +19196,10 @@
         <v>32</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I292" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J292" s="13">
         <v>18.350149663165201</v>
@@ -19027,7 +19214,7 @@
         <v>44449</v>
       </c>
       <c r="O292" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P292" s="2" t="s">
         <v>24</v>
@@ -19041,10 +19228,10 @@
         <v>44392</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D293" s="7">
         <v>72</v>
@@ -19059,10 +19246,10 @@
         <v>32</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I293" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J293" s="13">
         <v>18.349950006231602</v>
@@ -19077,7 +19264,7 @@
         <v>44449</v>
       </c>
       <c r="O293" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P293" s="2" t="s">
         <v>24</v>
@@ -19091,10 +19278,10 @@
         <v>44392</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D294" s="7">
         <v>55</v>
@@ -19109,10 +19296,10 @@
         <v>32</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="J294" s="13">
         <v>18.350015301257301</v>
@@ -19127,7 +19314,7 @@
         <v>44449</v>
       </c>
       <c r="O294" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P294" s="2" t="s">
         <v>24</v>
@@ -19141,10 +19328,10 @@
         <v>44392</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D295" s="7">
         <v>57</v>
@@ -19159,10 +19346,10 @@
         <v>32</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J295" s="13">
         <v>18.349725371226601</v>
@@ -19177,7 +19364,7 @@
         <v>44449</v>
       </c>
       <c r="O295" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P295" s="2" t="s">
         <v>24</v>
@@ -19191,10 +19378,10 @@
         <v>44392</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D296" s="7">
         <v>52</v>
@@ -19209,10 +19396,10 @@
         <v>32</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J296" s="13">
         <v>18.350185537710701</v>
@@ -19227,7 +19414,7 @@
         <v>44449</v>
       </c>
       <c r="O296" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P296" s="2" t="s">
         <v>24</v>
@@ -19241,10 +19428,10 @@
         <v>44392</v>
       </c>
       <c r="B297" s="35" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C297" s="35" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D297" s="36">
         <v>71</v>
@@ -19259,10 +19446,10 @@
         <v>32</v>
       </c>
       <c r="H297" s="35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J297" s="13">
         <v>18.349803490564199</v>
@@ -19277,7 +19464,7 @@
         <v>44449</v>
       </c>
       <c r="O297" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P297" s="2" t="s">
         <v>24</v>
@@ -19291,10 +19478,10 @@
         <v>44393</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D298" s="7">
         <v>69</v>
@@ -19306,13 +19493,13 @@
         <v>61</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J298" s="13">
         <v>18.348725326359201</v>
@@ -19327,7 +19514,7 @@
         <v>44449</v>
       </c>
       <c r="O298" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P298" s="2" t="s">
         <v>24</v>
@@ -19341,10 +19528,10 @@
         <v>44393</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D299" s="7">
         <v>57</v>
@@ -19353,16 +19540,16 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>882</v>
+        <v>31</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="J299" s="13">
         <v>18.309772945940399</v>
@@ -19373,11 +19560,14 @@
       <c r="L299" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="M299" t="s">
+        <v>1130</v>
+      </c>
       <c r="N299" s="11">
         <v>44449</v>
       </c>
       <c r="O299" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P299" s="2" t="s">
         <v>24</v>
@@ -19391,10 +19581,10 @@
         <v>44393</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D300" s="7">
         <v>23</v>
@@ -19406,13 +19596,13 @@
         <v>61</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="J300" s="13">
         <v>18.348440760746499</v>
@@ -19427,7 +19617,7 @@
         <v>44449</v>
       </c>
       <c r="O300" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P300" s="2" t="s">
         <v>24</v>
@@ -19441,10 +19631,10 @@
         <v>44393</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C301" s="32" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D301" s="7">
         <v>61</v>
@@ -19456,13 +19646,13 @@
         <v>61</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="J301" s="13">
         <v>18.3485202211886</v>
@@ -19477,7 +19667,7 @@
         <v>44449</v>
       </c>
       <c r="O301" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P301" s="2" t="s">
         <v>24</v>
@@ -19491,10 +19681,10 @@
         <v>44393</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D302" s="7">
         <v>68</v>
@@ -19506,13 +19696,13 @@
         <v>31</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I302" s="5" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="J302" s="13">
         <v>18.3097446151077</v>
@@ -19527,7 +19717,7 @@
         <v>44449</v>
       </c>
       <c r="O302" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P302" s="2" t="s">
         <v>24</v>
@@ -19541,10 +19731,10 @@
         <v>44393</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D303" s="7">
         <v>52</v>
@@ -19556,13 +19746,13 @@
         <v>31</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I303" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="J303" s="13">
         <v>18.309711255133099</v>
@@ -19577,7 +19767,7 @@
         <v>44449</v>
       </c>
       <c r="O303" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P303" s="2" t="s">
         <v>24</v>
@@ -19591,10 +19781,10 @@
         <v>44393</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D304" s="7">
         <v>72</v>
@@ -19603,16 +19793,16 @@
         <v>0.55902777777777779</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="J304" s="13">
         <v>18.309557195752799</v>
@@ -19627,7 +19817,7 @@
         <v>44449</v>
       </c>
       <c r="O304" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P304" s="2" t="s">
         <v>24</v>
@@ -19641,10 +19831,10 @@
         <v>44393</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D305" s="7">
         <v>67</v>
@@ -19656,13 +19846,13 @@
         <v>31</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I305" s="5" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="J305" s="13">
         <v>18.309689629822898</v>
@@ -19677,7 +19867,7 @@
         <v>44449</v>
       </c>
       <c r="O305" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P305" s="2" t="s">
         <v>24</v>
@@ -19691,10 +19881,10 @@
         <v>44393</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D306" s="7">
         <v>15</v>
@@ -19706,13 +19896,13 @@
         <v>61</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="J306" s="13">
         <v>18.3486093208193</v>
@@ -19727,7 +19917,7 @@
         <v>44449</v>
       </c>
       <c r="O306" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P306" s="2" t="s">
         <v>24</v>
@@ -19741,10 +19931,10 @@
         <v>44393</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D307" s="7">
         <v>4</v>
@@ -19756,13 +19946,13 @@
         <v>61</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J307" s="13">
         <v>18.3474775124341</v>
@@ -19774,13 +19964,13 @@
         <v>22</v>
       </c>
       <c r="M307" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="N307" s="11">
         <v>44449</v>
       </c>
       <c r="O307" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P307" s="2" t="s">
         <v>24</v>
@@ -19794,10 +19984,10 @@
         <v>44393</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C308" s="32" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D308" s="7">
         <v>1</v>
@@ -19809,13 +19999,13 @@
         <v>61</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I308" s="5" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J308" s="13">
         <v>18.347974894568299</v>
@@ -19830,7 +20020,7 @@
         <v>44449</v>
       </c>
       <c r="O308" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P308" s="2" t="s">
         <v>24</v>
@@ -19844,10 +20034,10 @@
         <v>44393</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D309" s="7">
         <v>47</v>
@@ -19859,13 +20049,13 @@
         <v>61</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I309" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="J309" s="13">
         <v>18.348267674446099</v>
@@ -19880,7 +20070,7 @@
         <v>44452</v>
       </c>
       <c r="O309" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P309" s="2" t="s">
         <v>24</v>
@@ -19894,10 +20084,10 @@
         <v>44393</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D310" s="7">
         <v>59</v>
@@ -19909,13 +20099,13 @@
         <v>61</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I310" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="J310" s="13">
         <v>18.348782323300799</v>
@@ -19927,13 +20117,13 @@
         <v>22</v>
       </c>
       <c r="M310" s="5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="N310" s="11">
         <v>44452</v>
       </c>
       <c r="O310" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P310" s="2" t="s">
         <v>24</v>
@@ -19947,10 +20137,10 @@
         <v>44393</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D311" s="7">
         <v>43</v>
@@ -19962,13 +20152,13 @@
         <v>61</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="J311" s="13">
         <v>18.348366580903502</v>
@@ -19983,7 +20173,7 @@
         <v>44452</v>
       </c>
       <c r="O311" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P311" s="2" t="s">
         <v>24</v>
@@ -19997,10 +20187,10 @@
         <v>44393</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D312" s="7">
         <v>40</v>
@@ -20012,13 +20202,13 @@
         <v>31</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="J312" s="13">
         <v>18.309748303145099</v>
@@ -20033,7 +20223,7 @@
         <v>44452</v>
       </c>
       <c r="O312" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P312" s="2" t="s">
         <v>24</v>
@@ -20047,10 +20237,10 @@
         <v>44393</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D313" s="7">
         <v>9</v>
@@ -20062,13 +20252,13 @@
         <v>31</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="J313" s="13">
         <v>18.309739166870699</v>
@@ -20083,7 +20273,7 @@
         <v>44452</v>
       </c>
       <c r="O313" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P313" s="2" t="s">
         <v>24</v>
@@ -20097,10 +20287,10 @@
         <v>44393</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D314" s="7">
         <v>56</v>
@@ -20112,19 +20302,19 @@
         <v>31</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H314" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H314" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="J314" s="13">
-        <v>18.3501267805695</v>
-      </c>
-      <c r="K314" s="13">
-        <v>-64.781310847029005</v>
+        <v>844</v>
+      </c>
+      <c r="J314" s="67">
+        <v>18.309587286785199</v>
+      </c>
+      <c r="K314" s="67">
+        <v>-64.722081888467102</v>
       </c>
       <c r="L314" s="2" t="s">
         <v>22</v>
@@ -20133,7 +20323,7 @@
         <v>44452</v>
       </c>
       <c r="O314" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P314" s="2" t="s">
         <v>24</v>
@@ -20147,10 +20337,10 @@
         <v>44393</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D315" s="7">
         <v>55</v>
@@ -20159,31 +20349,34 @@
         <v>0.56319444444444444</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>899</v>
+        <v>132</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H315" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H315" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="J315" s="13">
-        <v>18.347474494948901</v>
-      </c>
-      <c r="K315" s="13">
-        <v>-64.780856966972294</v>
+        <v>733</v>
+      </c>
+      <c r="J315" s="67">
+        <v>18.309587286785199</v>
+      </c>
+      <c r="K315" s="67">
+        <v>-64.722081888467102</v>
       </c>
       <c r="L315" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="M315" t="s">
+        <v>1129</v>
+      </c>
       <c r="N315" s="11">
         <v>44452</v>
       </c>
       <c r="O315" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P315" s="2" t="s">
         <v>24</v>
@@ -20197,10 +20390,10 @@
         <v>44393</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D316" s="7">
         <v>35</v>
@@ -20212,19 +20405,19 @@
         <v>31</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H316" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H316" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I316" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="J316" s="13">
-        <v>18.350194925442299</v>
-      </c>
-      <c r="K316" s="13">
-        <v>-64.781263824552198</v>
+        <v>933</v>
+      </c>
+      <c r="J316" s="67">
+        <v>18.309610504657002</v>
+      </c>
+      <c r="K316" s="67">
+        <v>-64.721920872107106</v>
       </c>
       <c r="L316" s="2" t="s">
         <v>22</v>
@@ -20233,13 +20426,13 @@
         <v>44452</v>
       </c>
       <c r="O316" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P316" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q316" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="317" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20247,10 +20440,10 @@
         <v>44393</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D317" s="7">
         <v>51</v>
@@ -20262,19 +20455,19 @@
         <v>31</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H317" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H317" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I317" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="J317" s="13">
-        <v>18.349529821425602</v>
-      </c>
-      <c r="K317" s="13">
-        <v>-64.781641596928196</v>
+        <v>937</v>
+      </c>
+      <c r="J317" s="67">
+        <v>18.309684097766901</v>
+      </c>
+      <c r="K317" s="67">
+        <v>-64.722045427188306</v>
       </c>
       <c r="L317" s="2" t="s">
         <v>22</v>
@@ -20283,13 +20476,13 @@
         <v>44452</v>
       </c>
       <c r="O317" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P317" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q317" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="318" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20297,10 +20490,10 @@
         <v>44393</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D318" s="7">
         <v>76</v>
@@ -20312,19 +20505,19 @@
         <v>31</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H318" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H318" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I318" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="J318" s="13">
-        <v>18.3502220828086</v>
-      </c>
-      <c r="K318" s="13">
-        <v>-64.781248066574307</v>
+        <v>940</v>
+      </c>
+      <c r="J318" s="67">
+        <v>18.309544874355201</v>
+      </c>
+      <c r="K318" s="67">
+        <v>-64.721946353092804</v>
       </c>
       <c r="L318" s="2" t="s">
         <v>22</v>
@@ -20333,13 +20526,13 @@
         <v>44452</v>
       </c>
       <c r="O318" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P318" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q318" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="319" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20347,10 +20540,10 @@
         <v>44393</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D319" s="7">
         <v>33</v>
@@ -20362,19 +20555,19 @@
         <v>31</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H319" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H319" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="J319" s="13">
-        <v>18.349592769518399</v>
-      </c>
-      <c r="K319" s="13">
-        <v>-64.781671520322504</v>
+        <v>943</v>
+      </c>
+      <c r="J319" s="67">
+        <v>18.3097243309021</v>
+      </c>
+      <c r="K319" s="67">
+        <v>-64.722086079418702</v>
       </c>
       <c r="L319" s="2" t="s">
         <v>22</v>
@@ -20383,13 +20576,13 @@
         <v>44452</v>
       </c>
       <c r="O319" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P319" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q319" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="320" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20397,10 +20590,10 @@
         <v>44393</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D320" s="7">
         <v>53</v>
@@ -20412,19 +20605,19 @@
         <v>31</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H320" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H320" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="J320" s="13">
-        <v>18.3501681033521</v>
-      </c>
-      <c r="K320" s="13">
-        <v>-64.781307913362895</v>
+        <v>800</v>
+      </c>
+      <c r="J320" s="67">
+        <v>18.3096303697675</v>
+      </c>
+      <c r="K320" s="67">
+        <v>-64.721846776083098</v>
       </c>
       <c r="L320" s="2" t="s">
         <v>22</v>
@@ -20433,13 +20626,13 @@
         <v>44452</v>
       </c>
       <c r="O320" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P320" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q320" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="321" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20447,10 +20640,10 @@
         <v>44393</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D321" s="7">
         <v>65</v>
@@ -20462,19 +20655,19 @@
         <v>31</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H321" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H321" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="J321" s="13">
-        <v>18.350194925442299</v>
-      </c>
-      <c r="K321" s="13">
-        <v>-64.781263824552198</v>
+        <v>933</v>
+      </c>
+      <c r="J321" s="67">
+        <v>18.309610504657002</v>
+      </c>
+      <c r="K321" s="67">
+        <v>-64.721920872107106</v>
       </c>
       <c r="L321" s="2" t="s">
         <v>22</v>
@@ -20483,13 +20676,13 @@
         <v>44452</v>
       </c>
       <c r="O321" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P321" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q321" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="322" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20497,10 +20690,10 @@
         <v>44393</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D322" s="7">
         <v>73</v>
@@ -20512,19 +20705,19 @@
         <v>31</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H322" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H322" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="J322" s="13">
-        <v>18.349578855559201</v>
-      </c>
-      <c r="K322" s="13">
-        <v>-64.781673951074396</v>
+        <v>950</v>
+      </c>
+      <c r="J322" s="67">
+        <v>18.309667836874699</v>
+      </c>
+      <c r="K322" s="67">
+        <v>-64.722122456878395</v>
       </c>
       <c r="L322" s="2" t="s">
         <v>22</v>
@@ -20533,13 +20726,13 @@
         <v>44452</v>
       </c>
       <c r="O322" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P322" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q322" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="323" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20547,31 +20740,35 @@
         <v>44393</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>65</v>
+        <v>355</v>
       </c>
       <c r="D323" s="7">
         <v>58</v>
       </c>
-      <c r="E323" s="7" t="s">
-        <v>65</v>
+      <c r="E323" s="53" t="s">
+        <v>355</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>65</v>
+        <v>355</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H323" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="I323" s="56" t="s">
-        <v>539</v>
-      </c>
-      <c r="J323" s="54"/>
-      <c r="K323" s="54"/>
+        <v>876</v>
+      </c>
+      <c r="H323" s="57" t="s">
+        <v>880</v>
+      </c>
+      <c r="I323" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="J323" s="67">
+        <v>18.309667836874699</v>
+      </c>
+      <c r="K323" s="67">
+        <v>-64.722122456878395</v>
+      </c>
       <c r="L323" s="2" t="s">
         <v>22</v>
       </c>
@@ -20579,13 +20776,13 @@
         <v>44452</v>
       </c>
       <c r="O323" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P323" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q323" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="324" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20593,10 +20790,10 @@
         <v>44393</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D324" s="7">
         <v>36</v>
@@ -20608,19 +20805,19 @@
         <v>31</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H324" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H324" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I324" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="J324" s="13">
-        <v>18.349540382623601</v>
-      </c>
-      <c r="K324" s="13">
-        <v>-64.781623659655395</v>
+        <v>954</v>
+      </c>
+      <c r="J324" s="67">
+        <v>18.309684433043</v>
+      </c>
+      <c r="K324" s="67">
+        <v>-64.722167551517501</v>
       </c>
       <c r="L324" s="2" t="s">
         <v>22</v>
@@ -20629,13 +20826,13 @@
         <v>44452</v>
       </c>
       <c r="O324" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P324" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q324" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="325" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20643,10 +20840,10 @@
         <v>44393</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D325" s="7">
         <v>20</v>
@@ -20658,19 +20855,19 @@
         <v>31</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H325" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H325" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I325" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="J325" s="13">
-        <v>18.349517835304098</v>
-      </c>
-      <c r="K325" s="13">
-        <v>-64.781640758737893</v>
+        <v>957</v>
+      </c>
+      <c r="J325" s="67">
+        <v>18.309719050303102</v>
+      </c>
+      <c r="K325" s="67">
+        <v>-64.722079792991295</v>
       </c>
       <c r="L325" s="2" t="s">
         <v>22</v>
@@ -20679,13 +20876,13 @@
         <v>44452</v>
       </c>
       <c r="O325" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P325" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q325" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="326" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20693,10 +20890,10 @@
         <v>44393</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D326" s="7">
         <v>66</v>
@@ -20708,19 +20905,19 @@
         <v>31</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H326" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H326" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I326" s="5" t="s">
-        <v>963</v>
-      </c>
-      <c r="J326" s="13">
-        <v>18.349507274106099</v>
-      </c>
-      <c r="K326" s="13">
-        <v>-64.7816626355051</v>
+        <v>960</v>
+      </c>
+      <c r="J326" s="67">
+        <v>18.309702705591899</v>
+      </c>
+      <c r="K326" s="67">
+        <v>-64.722232092171893</v>
       </c>
       <c r="L326" s="2" t="s">
         <v>22</v>
@@ -20729,13 +20926,13 @@
         <v>44452</v>
       </c>
       <c r="O326" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P326" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q326" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="327" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20743,10 +20940,10 @@
         <v>44393</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C327" s="32" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D327" s="7">
         <v>63</v>
@@ -20758,19 +20955,19 @@
         <v>31</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H327" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H327" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I327" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="J327" s="13">
-        <v>18.3501644991338</v>
-      </c>
-      <c r="K327" s="13">
-        <v>-64.781240019947205</v>
+        <v>963</v>
+      </c>
+      <c r="J327" s="67">
+        <v>18.309515370056001</v>
+      </c>
+      <c r="K327" s="67">
+        <v>-64.722059508785605</v>
       </c>
       <c r="L327" s="2" t="s">
         <v>22</v>
@@ -20779,13 +20976,13 @@
         <v>44452</v>
       </c>
       <c r="O327" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P327" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q327" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="328" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20793,10 +20990,10 @@
         <v>44393</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D328" s="7">
         <v>62</v>
@@ -20808,19 +21005,19 @@
         <v>31</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="H328" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
+      </c>
+      <c r="H328" s="57" t="s">
+        <v>880</v>
       </c>
       <c r="I328" s="5" t="s">
-        <v>969</v>
-      </c>
-      <c r="J328" s="13">
-        <v>18.349828636273699</v>
-      </c>
-      <c r="K328" s="13">
-        <v>-64.781447220593606</v>
+        <v>966</v>
+      </c>
+      <c r="J328" s="67">
+        <v>18.309661466628299</v>
+      </c>
+      <c r="K328" s="67">
+        <v>-64.722096472978606</v>
       </c>
       <c r="L328" s="2" t="s">
         <v>22</v>
@@ -20829,13 +21026,13 @@
         <v>44452</v>
       </c>
       <c r="O328" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="P328" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q328" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="329" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -31566,13 +31763,10 @@
       <c r="P959" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="I120:K131"/>
-    <mergeCell ref="I173:K179"/>
-    <mergeCell ref="I227:K239"/>
-    <mergeCell ref="I323:K323"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
@@ -31599,22 +31793,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="G1" s="9"/>
     </row>
@@ -31629,19 +31823,19 @@
         <v>61</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>63</v>
@@ -31650,19 +31844,19 @@
         <v>61</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>72</v>
@@ -31671,19 +31865,19 @@
         <v>61</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>75</v>
@@ -31692,19 +31886,19 @@
         <v>61</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>76</v>
@@ -31713,19 +31907,19 @@
         <v>61</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>79</v>
@@ -31734,19 +31928,19 @@
         <v>61</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>80</v>
@@ -31755,19 +31949,19 @@
         <v>61</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>97</v>
@@ -31776,13 +31970,13 @@
         <v>61</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="G9" s="10"/>
     </row>
@@ -31797,19 +31991,19 @@
         <v>61</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>111</v>
@@ -31818,19 +32012,19 @@
         <v>61</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>112</v>
@@ -31839,19 +32033,19 @@
         <v>61</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>116</v>
@@ -31860,97 +32054,97 @@
         <v>61</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="G17" s="10"/>
     </row>
@@ -31959,166 +32153,166 @@
         <v>477</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="G25" s="10"/>
     </row>
@@ -32133,19 +32327,19 @@
         <v>184</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>191</v>
@@ -32154,19 +32348,19 @@
         <v>184</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>203</v>
@@ -32175,19 +32369,19 @@
         <v>184</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>268</v>
@@ -32196,19 +32390,19 @@
         <v>184</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>279</v>
@@ -32217,19 +32411,19 @@
         <v>184</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>364</v>
@@ -32238,19 +32432,19 @@
         <v>184</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>367</v>
@@ -32259,19 +32453,19 @@
         <v>184</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>370</v>
@@ -32280,13 +32474,13 @@
         <v>184</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="G33" s="10"/>
     </row>
@@ -32301,19 +32495,19 @@
         <v>184</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>376</v>
@@ -32322,19 +32516,19 @@
         <v>184</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>378</v>
@@ -32343,19 +32537,19 @@
         <v>184</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>384</v>
@@ -32364,97 +32558,97 @@
         <v>184</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="G41" s="10"/>
     </row>
@@ -32463,166 +32657,166 @@
         <v>391</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>184</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="G49" s="10"/>
     </row>
@@ -33673,7 +33867,7 @@
         <v>184</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -33681,7 +33875,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -33689,7 +33883,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -33697,7 +33891,7 @@
         <v>132</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -33705,7 +33899,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -33713,7 +33907,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -33721,37 +33915,37 @@
         <v>38</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B8" s="54"/>
+      <c r="A8" s="56" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B8" s="55"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
